--- a/output/iberoamerica europa.xlsx
+++ b/output/iberoamerica europa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -540,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +558,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,10 +667,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -760,15 +778,24 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>327680</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -867,15 +894,24 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>305661</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -974,15 +1010,24 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>217141</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1081,15 +1126,24 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>70993</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1188,15 +1242,24 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>70993</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1295,15 +1358,24 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>92133</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1402,15 +1474,24 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>83425</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1509,15 +1590,24 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>17804</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1616,15 +1706,24 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>245989</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1723,15 +1822,24 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>114184</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1830,15 +1938,24 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>114184</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1937,15 +2054,24 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>31921</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2044,15 +2170,24 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>236938</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2151,15 +2286,24 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>227292</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2258,15 +2402,24 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>39348</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2365,15 +2518,24 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>39348</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2472,15 +2634,24 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>159237</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2579,15 +2750,24 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>32827</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2686,15 +2866,24 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>32827</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2793,15 +2982,24 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>11874</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2900,15 +3098,24 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>11874</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3007,15 +3214,24 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>11738</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3114,15 +3330,24 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>9120</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3221,15 +3446,24 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>21974</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3328,15 +3562,24 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>19968</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3435,9 +3678,18 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>9037</v>
       </c>
     </row>

--- a/output/iberoamerica europa.xlsx
+++ b/output/iberoamerica europa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -549,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,7 +564,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,10 +682,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -778,24 +790,30 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>1981</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>327680</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -894,24 +912,30 @@
         <v>0</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>1981</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>305661</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1010,24 +1034,30 @@
         <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>1981</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>217141</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1126,24 +1156,30 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>1981</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>70993</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1242,24 +1278,30 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>1981</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>70993</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1358,24 +1400,30 @@
         <v>0</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>1981</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>92133</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1474,24 +1522,30 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1981</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>83425</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1590,24 +1644,30 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1981</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>17804</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1706,24 +1766,30 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>1981</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>245989</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1822,24 +1888,30 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>1981</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>114184</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1938,24 +2010,30 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1981</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>114184</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2054,24 +2132,30 @@
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>1981</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>31921</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2170,24 +2254,30 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>1981</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>236938</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2286,24 +2376,30 @@
         <v>0</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>1981</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>227292</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2402,24 +2498,30 @@
         <v>0</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>1981</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>39348</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2518,24 +2620,30 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1981</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>39348</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2634,24 +2742,30 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>1981</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>159237</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2750,24 +2864,30 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1981</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>32827</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2866,24 +2986,30 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>1981</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>32827</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2982,24 +3108,30 @@
         <v>0</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>1981</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>11874</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3098,24 +3230,30 @@
         <v>0</v>
       </c>
       <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>1981</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>11874</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3214,24 +3352,30 @@
         <v>0</v>
       </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>1981</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>11738</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3330,24 +3474,30 @@
         <v>0</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>1981</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>9120</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3446,24 +3596,30 @@
         <v>0</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>1981</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>21974</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3562,24 +3718,30 @@
         <v>0</v>
       </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>1981</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>19968</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3678,18 +3840,24 @@
         <v>0</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1981</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>9037</v>
       </c>
     </row>

--- a/output/iberoamerica europa.xlsx
+++ b/output/iberoamerica europa.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6800</v>
+        <v>7772.38875590225</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7150</v>
+        <v>8082.02845866252</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8510</v>
+        <v>8841.561277324312</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>

--- a/output/iberoamerica europa.xlsx
+++ b/output/iberoamerica europa.xlsx
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>32827</v>
+        <v>227292</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11874</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>171.03</v>
       </c>
       <c r="D27">
         <v>0</v>
